--- a/_doc/20200727 Document Sumary DEV_DHTN.xlsx
+++ b/_doc/20200727 Document Sumary DEV_DHTN.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hk-work\Hk-ZTODO-ACTIVE\host-working\DHTN_Dev\DHTN_DEV\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B187A97B-0DDE-480C-944B-58AE391E7B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D24EBC-AD3C-4E00-92BE-AAB800617270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumary" sheetId="1" r:id="rId1"/>
-    <sheet name="Workspace" sheetId="2" r:id="rId2"/>
-    <sheet name="Flow chart" sheetId="3" r:id="rId3"/>
-    <sheet name="Timeline" sheetId="7" r:id="rId4"/>
-    <sheet name="Tasks" sheetId="8" r:id="rId5"/>
-    <sheet name="Source" sheetId="9" r:id="rId6"/>
+    <sheet name="Role" sheetId="10" r:id="rId2"/>
+    <sheet name="Workspace" sheetId="2" r:id="rId3"/>
+    <sheet name="Flow chart" sheetId="3" r:id="rId4"/>
+    <sheet name="Timeline" sheetId="7" r:id="rId5"/>
+    <sheet name="Tasks" sheetId="8" r:id="rId6"/>
+    <sheet name="Source" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>No.</t>
   </si>
@@ -271,12 +272,152 @@
   <si>
     <t>https://github.com/azerion/phaser-ads</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Branch name:</t>
+  </si>
+  <si>
+    <t>Comment when push code:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sheet name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index of No.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Branch name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title task</t>
+    </r>
+  </si>
+  <si>
+    <t>ex:</t>
+  </si>
+  <si>
+    <t>Art-12 Boss:3 types</t>
+  </si>
+  <si>
+    <t>Art-12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +459,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -505,6 +654,2952 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34999A65-AA90-4BE1-B5D0-E4DE0D9D71E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="161925"/>
+          <a:ext cx="5105400" cy="3914775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Maintainer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29AD61D1-4B09-4970-A144-6671CCCD99E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="733425"/>
+          <a:ext cx="2943225" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Implementer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA10614-462B-403D-97E5-5988EEB058F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="2419350"/>
+          <a:ext cx="3800475" cy="1666876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Coder</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA91BDA-5CDD-4D13-9387-5E9658534809}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="190500"/>
+          <a:ext cx="3790951" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Designer - Art</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D3B1D6-D375-44F3-B75F-862D2D3F453C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571501" y="3009901"/>
+          <a:ext cx="1019175" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Master</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10598266-F661-4A6C-9E49-E2CC4FE30D0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885951" y="2990851"/>
+          <a:ext cx="1904999" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Dev</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>(deverlopment)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CCB804A-BFC0-4AA6-8857-1F998193FE54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800476" y="723901"/>
+          <a:ext cx="1352550" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Design-publish</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58AB48F1-27C4-4B7E-82C6-621C08FCA17D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800476" y="1476376"/>
+          <a:ext cx="1352550" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Design-painting</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45BBA088-1FF6-4290-981E-E54E5E5EC24E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="1285876"/>
+          <a:ext cx="2638425" cy="942976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Server</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="b"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>http://master-dhtn.webtoolsmega.net/</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="b" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>http://dev-dhtn.webtoolsmega.net/</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Arrow: Up 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF8501BB-8E68-4D0E-8347-85D5B4EA4009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990601" y="2295526"/>
+          <a:ext cx="504825" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Arrow: Up 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFEACA96-46ED-41CA-8A00-13782A9B9281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190751" y="2295526"/>
+          <a:ext cx="504825" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Connector: Elbow 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90CE7356-7417-410F-B1B7-CB4875A266F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="20" idx="1"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3790950" y="3019424"/>
+          <a:ext cx="2095500" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180977</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47627</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Connector: Elbow 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7B8659-E90D-406E-8FD4-F248A956AE5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3148014" y="1662113"/>
+          <a:ext cx="1019175" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 81776"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>27942</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE0314AD-EEA3-4007-A984-BF5284212F0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="542926"/>
+          <a:ext cx="3285492" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>new branch</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ex: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Create Enemy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Enemy for attack damge: 5 types</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D72EE3-6E6A-4DF7-9D25-156F859DED53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+          <a:endCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1590676" y="3248026"/>
+          <a:ext cx="295275" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Connector: Elbow 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A32F79C5-89AB-4276-8210-C62CD7350B0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="1"/>
+          <a:endCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5153027" y="790575"/>
+          <a:ext cx="742949" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Connector: Elbow 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F5F910-8912-406E-AEAE-14A52217E115}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="1"/>
+          <a:endCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5153027" y="1447800"/>
+          <a:ext cx="742949" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F41B246-A038-4483-9A01-C7C206501889}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="1200151"/>
+          <a:ext cx="3286126" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>new branch</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ex: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Publish Enemy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Enemy for attack damge: 5 types</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D4A693C-1867-45E6-9705-406305EE6974}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886450" y="2771775"/>
+          <a:ext cx="3286126" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>new branch</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ex: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Multi players</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>add second player</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>24847</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="Group 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EBC7F55-4CDF-47CF-9D4A-39974DC4A93D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9896475" y="295274"/>
+          <a:ext cx="1939372" cy="276225"/>
+          <a:chOff x="9992139" y="295274"/>
+          <a:chExt cx="1959665" cy="276225"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Rectangle 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA5D6127-10B2-4AEC-9AC5-604B409BA6AC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10890234" y="304801"/>
+            <a:ext cx="999296" cy="247649"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="Rectangle 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E136F0F-D783-4431-841A-CE8DA9AE619B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9992139" y="295274"/>
+            <a:ext cx="1959665" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Brach</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="Group 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1ADC9B8-70AF-4D65-919D-A2CCBE73B609}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9915525" y="600074"/>
+          <a:ext cx="1695450" cy="276225"/>
+          <a:chOff x="9994106" y="600074"/>
+          <a:chExt cx="1709738" cy="276225"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD57DBD-D731-49DA-9648-CFFA395AD959}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="10870406" y="714375"/>
+            <a:ext cx="678658" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="Rectangle 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB999C0F-DF22-4461-84C6-00A01D2345B5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9994106" y="600074"/>
+            <a:ext cx="1709738" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Line</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C133327-7A3D-4004-B820-31AF6A888EB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867151" y="3438526"/>
+          <a:ext cx="1419224" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>document-preparing</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Connector: Elbow 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BB7B3E-533B-410A-A848-3437CD1AFF57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="33" idx="1"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2838451" y="3505202"/>
+          <a:ext cx="1028700" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>38806</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B62A7A3-3FF5-4DFF-B79D-677BCFD31244}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9744075" y="1143000"/>
+          <a:ext cx="5058481" cy="2781688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>38269</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D79C70-8414-437D-9F2D-A8AC55EAB708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13001625" y="2047875"/>
+          <a:ext cx="1209844" cy="504895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectangle 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E3DFD4-C21C-4763-932A-5FC0734D8193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10744200" y="1438275"/>
+          <a:ext cx="342900" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C23409-A675-4ADF-9508-D2519DA44AD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10077450" y="1676400"/>
+          <a:ext cx="342900" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectangle 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8562C15-3CB2-4DD7-A798-673FA85DB003}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10515600" y="2066925"/>
+          <a:ext cx="323850" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624BB833-1CE0-4454-9A4C-FA5A26B5F305}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="1"/>
+          <a:endCxn id="54" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10248900" y="1543050"/>
+          <a:ext cx="495300" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B758300F-0BDF-4D0A-A79F-23D63F1C84DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="2"/>
+          <a:endCxn id="55" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="1885950"/>
+          <a:ext cx="266700" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Rectangle 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C397EC-6C0C-4792-9B8F-995E003D7335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001250" y="4171949"/>
+          <a:ext cx="1743076" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Title comment push code:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Rectangle 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30263283-FD1E-4BE6-8070-3C4EE25189E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11801474" y="4171949"/>
+          <a:ext cx="2390775" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Art-12:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Boss:3 types</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Rectangle 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8A8FE0-80E5-4FE0-8CD0-D1298F5D4A6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13411199" y="2247899"/>
+          <a:ext cx="428625" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rectangle 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B1B185-1BAE-4885-A3E4-361A34EECA4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11839574" y="4200524"/>
+          <a:ext cx="428625" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rectangle 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB107C6D-1170-4798-8522-B1847A57B936}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10877549" y="2066925"/>
+          <a:ext cx="838201" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Rectangle 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC07680F-130B-485E-BD82-1DE5BF71DAA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12306299" y="4191000"/>
+          <a:ext cx="838201" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Arrow Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE6A9C0-8025-4820-B6B5-76634C5E939D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="2"/>
+          <a:endCxn id="68" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12053887" y="2447924"/>
+          <a:ext cx="1571625" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Connector: Elbow 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D320DD67-3BCA-47D0-9DB8-2A063E509966}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="69" idx="2"/>
+          <a:endCxn id="71" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10948988" y="2624137"/>
+          <a:ext cx="2124075" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 110762"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>146188</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -4311,7 +7406,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5029,7 +8124,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5517,7 +8612,7 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5570,6 +8665,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE50D3C3-BE7D-476D-B097-C04AE48CAB6D}">
+  <dimension ref="AI24:BC27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="24" spans="35:55" x14ac:dyDescent="0.25">
+      <c r="BC24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="35:55" x14ac:dyDescent="0.25">
+      <c r="AI26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="35:55" x14ac:dyDescent="0.25">
+      <c r="AI27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C459DBD3-1808-4D0F-AA23-3DF9F704A458}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -5667,7 +8810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DBB9BA-B720-48E9-8129-6809BF5AABA9}">
   <dimension ref="A2:O29"/>
   <sheetViews>
@@ -5721,7 +8864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A058B892-B680-4E2E-9A20-878A07E356A0}">
   <dimension ref="B1:Z28"/>
   <sheetViews>
@@ -6026,7 +9169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B63D4F-A764-4675-A25A-EC073E37F10D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6130,7 +9273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA196D8-84F9-4946-AD07-8943BA22AB4E}">
   <dimension ref="B1:V43"/>
   <sheetViews>
